--- a/src/test/resources/testData/ProductData.xlsx
+++ b/src/test/resources/testData/ProductData.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C14E8DF-E914-4DF0-842C-072C891587D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6816C49E-22F6-4BD9-B111-9528A0B640CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B9EB394C-84E0-44E7-BE6A-7EF93DC7A596}"/>
   </bookViews>
   <sheets>
-    <sheet name="AddToCart" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
-  <si>
-    <t>TestCaseName</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>ProductName</t>
   </si>
@@ -36,21 +33,12 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>TC01</t>
-  </si>
-  <si>
     <t>Tomato</t>
   </si>
   <si>
     <t>Cucumber</t>
   </si>
   <si>
-    <t>Brocolli</t>
-  </si>
-  <si>
-    <t>TC02</t>
-  </si>
-  <si>
     <t>Beetroot</t>
   </si>
   <si>
@@ -58,6 +46,9 @@
   </si>
   <si>
     <t>Beans</t>
+  </si>
+  <si>
+    <t>Onion</t>
   </si>
 </sst>
 </file>
@@ -130,11 +121,11 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -450,94 +441,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1C2E7D8-B482-4DD7-BB2C-CA0028590744}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1">
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2">
         <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
